--- a/projecte/professorat/Avaluació/Criteris Avaluació.xlsx
+++ b/projecte/professorat/Avaluació/Criteris Avaluació.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues.sharepoint.com/sites/TreballTecnologiaiDigitalitzaci/Documentos compartidos/General/_DIDÀCTICA 2/CONTROL D'ASSISTÈNCIA A PROFESSORS/Contingut professor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajedrez\Documents\GitHub\NFC-Registre\projecte\professorat\Avaluació\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="11_21AF05E641CB319C9C73EED82CE16D7E00BD4368" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36E22A78-DBE4-4145-AAC3-53E80A3B658D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F21AE6-03CF-4E66-8D75-BD66B23D2625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>CE </t>
   </si>
@@ -53,9 +53,6 @@
     <t>Saber hacer </t>
   </si>
   <si>
-    <t>Saber estar </t>
-  </si>
-  <si>
     <t>CA </t>
   </si>
   <si>
@@ -66,12 +63,6 @@
   </si>
   <si>
     <t>CB </t>
-  </si>
-  <si>
-    <t>Crear la representació de problemes necessaris per aboradar una problemàtica. (Sprints 1 i 2)</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> 10%</t>
@@ -84,16 +75,10 @@
 -Fases del cicle de vida d'una aplicació: anàlisi, disseny, codificació, proves, documentació, explotació i manteniment, entre altres.  </t>
   </si>
   <si>
-    <t>Plantejar un projecte i es capaç de portar a terme les fases i tècniques necessàries. (Sprint 1 a 5)</t>
-  </si>
-  <si>
     <t>1.3. Programar de forma guiada aplicacions de mitjana complexitat i validar-les. </t>
   </si>
   <si>
     <t>- Llenguatges de programació. Paradigmes de programació. Objectes i esdeveniments. </t>
-  </si>
-  <si>
-    <t>Interpreta i utilitza eficientment el llenguatge de programació necessari (Phyton, SQL) (Sprint 3 i 4)</t>
   </si>
   <si>
     <t> 5%</t>
@@ -154,9 +139,6 @@
   </si>
   <si>
     <t>-Dispositius de xarxa i mitjans de transmissió.</t>
-  </si>
-  <si>
-    <t>Insertar registres en la base de dades mitjançant la Raspberry Pi (Sprint 4 i 5)</t>
   </si>
   <si>
     <t> 15%</t>
@@ -184,9 +166,6 @@
   </si>
   <si>
     <t>Personalització servidor web.</t>
-  </si>
-  <si>
-    <t>Gestionar adecuadament la base de dades en xarxa (Sprint 3 a 5)</t>
   </si>
   <si>
     <t xml:space="preserve">4.3. Utilitzar un servidor web local de manera segura, responsable i crítica. </t>
@@ -214,6 +193,21 @@
   </si>
   <si>
     <t>Evaluacion</t>
+  </si>
+  <si>
+    <t>Crear la representació de problemes necessaris per aboradar una problemàtica. (Sprint 1)</t>
+  </si>
+  <si>
+    <t>Interpreta i utilitza eficientment el llenguatge de programació necessari (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Insertar registres en la base de dades mitjançant la Raspberry Pi (Sprint 4)</t>
+  </si>
+  <si>
+    <t>Gestionar adecuadament la base de dades en xarxa (Sprint 3)</t>
+  </si>
+  <si>
+    <t>Plantejar un projecte i es capaç de portar a terme les fases i tècniques necessàries. (Sprint 5)</t>
   </si>
 </sst>
 </file>
@@ -297,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -483,19 +477,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -548,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -556,102 +537,117 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -664,38 +660,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,10 +681,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56:F57"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,805 +1012,711 @@
     <col min="2" max="3" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="25"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="C7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="40" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="C9" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="31" t="s">
+      <c r="C13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="37"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="31" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="F24" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="C28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="37"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="37"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="31" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="37"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="24"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="24"/>
+    </row>
+    <row r="49" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="37"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D52" s="4"/>
+      <c r="E52" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="38"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="37"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="31" t="s">
+      <c r="C56" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D56" s="4"/>
+      <c r="E56" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="17"/>
-    </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="15"/>
+      <c r="F56" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="A1:A6"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D57"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="F44:F49"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="F39:F42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="E44:E49"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F16:F21"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
-    <mergeCell ref="G16:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G55"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G1:G6"/>
-    <mergeCell ref="F1:F6"/>
+  <mergeCells count="76">
     <mergeCell ref="E1:E6"/>
     <mergeCell ref="D1:D6"/>
     <mergeCell ref="C1:C6"/>
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="A7:A14"/>
-    <mergeCell ref="F9:F12"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="D7:D14"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F6"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F44:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F55"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="D16:D21"/>
+    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="E44:E49"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A1:A6"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D57"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="E52:E55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9a2fb8-b6b8-49e0-9782-a1be223650a2">
@@ -1854,15 +1725,6 @@
     <TaxCatchAll xmlns="bcf2c21e-7c8c-4aa1-a238-b3a814444400" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2061,6 +1923,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D244619-12A6-4843-B835-03C7A04AE50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40D2BEA3-7B15-4938-A64F-E2924C414779}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2073,14 +1943,6 @@
     <ds:schemaRef ds:uri="ed9a2fb8-b6b8-49e0-9782-a1be223650a2"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D244619-12A6-4843-B835-03C7A04AE50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
